--- a/data/JonesP3.xlsx
+++ b/data/JonesP3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>HEX</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>HU</t>
+  </si>
+  <si>
+    <t>tonsCO2emissionsperkWh</t>
   </si>
 </sst>
 </file>
@@ -1779,9 +1782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,6 +1836,9 @@
       <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2051,8 +2057,7 @@
         <v>0.08</v>
       </c>
       <c r="O6" s="4">
-        <f>K6*J6</f>
-        <v>15857600</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2100,8 +2105,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O7" s="1">
-        <f>K7*J7</f>
-        <v>39177600</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2325,8 +2329,7 @@
         <v>0.08</v>
       </c>
       <c r="O12" s="4">
-        <f>K12*(J12-I12)</f>
-        <v>6004800</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2374,8 +2377,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O13" s="1">
-        <f>K13*(J13-I13)</f>
-        <v>29023200</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2467,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>

--- a/data/JonesP3.xlsx
+++ b/data/JonesP3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56A49A-7AE4-4E44-ACE2-A075AF097662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -15,17 +16,26 @@
     <sheet name="EconomicData" sheetId="3" r:id="rId6"/>
     <sheet name="ManualParameter" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>HEX</t>
   </si>
@@ -78,9 +88,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>dTUb</t>
-  </si>
-  <si>
     <t>dTLb</t>
   </si>
   <si>
@@ -108,9 +115,6 @@
     <t>A_ex</t>
   </si>
   <si>
-    <t>GA_TAC_Penalty</t>
-  </si>
-  <si>
     <t>MinimalHeatLoad</t>
   </si>
   <si>
@@ -219,9 +223,6 @@
     <t>c_R</t>
   </si>
   <si>
-    <t>OneMixerBool</t>
-  </si>
-  <si>
     <t>Soft</t>
   </si>
   <si>
@@ -232,16 +233,26 @@
   </si>
   <si>
     <t>tonsCO2emissionsperkWh</t>
+  </si>
+  <si>
+    <t>TACEmissionWeightFactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,13 +287,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -562,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -603,88 +616,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1483,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1500,25 +1513,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1555,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1581,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1607,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1631,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,13 +1655,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1730,7 +1743,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1779,12 +1792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1825,19 +1838,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2044,7 +2057,7 @@
       <c r="J6" s="4">
         <v>4664</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <v>3400</v>
       </c>
       <c r="L6" s="2">
@@ -2092,7 +2105,7 @@
       <c r="J7" s="1">
         <v>4664</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>8400</v>
       </c>
       <c r="L7" s="1">
@@ -2316,7 +2329,7 @@
       <c r="J12" s="4">
         <v>8000</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>1800</v>
       </c>
       <c r="L12" s="2">
@@ -2364,7 +2377,7 @@
       <c r="J13" s="1">
         <v>8000</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>8700</v>
       </c>
       <c r="L13" s="5">
@@ -2429,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2445,10 +2458,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,23 +2479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2490,35 +2502,23 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>999999999999999</v>
-      </c>
-      <c r="F2">
         <v>1</v>
       </c>
     </row>

--- a/data/JonesP3.xlsx
+++ b/data/JonesP3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56A49A-7AE4-4E44-ACE2-A075AF097662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718D461-191A-4905-9511-EF4E0E245903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23280" yWindow="3945" windowWidth="21600" windowHeight="12735" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>tonsCO2emissionsperkWh</t>
   </si>
   <si>
-    <t>TACEmissionWeightFactor</t>
+    <t>AbsHeatLoadTol</t>
   </si>
 </sst>
 </file>
@@ -2484,14 +2484,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
